--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga2b</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H2">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I2">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J2">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N2">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O2">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P2">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q2">
-        <v>1.486880932661333</v>
+        <v>0.6284629375349998</v>
       </c>
       <c r="R2">
-        <v>13.381928393952</v>
+        <v>5.656166437814999</v>
       </c>
       <c r="S2">
-        <v>0.04690471471245072</v>
+        <v>0.02488688104688805</v>
       </c>
       <c r="T2">
-        <v>0.04854241071967951</v>
+        <v>0.02690404253227138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H3">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I3">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J3">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O3">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P3">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q3">
-        <v>2.984205214855111</v>
+        <v>2.374645115614666</v>
       </c>
       <c r="R3">
-        <v>26.857846933696</v>
+        <v>21.371806040532</v>
       </c>
       <c r="S3">
-        <v>0.09413887230072403</v>
+        <v>0.09403499711959501</v>
       </c>
       <c r="T3">
-        <v>0.09742576693886565</v>
+        <v>0.1016568350715025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H4">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I4">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J4">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N4">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O4">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P4">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q4">
-        <v>0.3070262729795555</v>
+        <v>0.399827157902</v>
       </c>
       <c r="R4">
-        <v>2.763236456816</v>
+        <v>3.598444421118</v>
       </c>
       <c r="S4">
-        <v>0.009685361771071403</v>
+        <v>0.01583299558928763</v>
       </c>
       <c r="T4">
-        <v>0.01002352987204569</v>
+        <v>0.01711631063550748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H5">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I5">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J5">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N5">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O5">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P5">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q5">
-        <v>0.651609008944</v>
+        <v>1.081529555519</v>
       </c>
       <c r="R5">
-        <v>3.909654053664</v>
+        <v>6.489177333113999</v>
       </c>
       <c r="S5">
-        <v>0.02055546883224611</v>
+        <v>0.04282813796859115</v>
       </c>
       <c r="T5">
-        <v>0.01418211391196737</v>
+        <v>0.03086633055957125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H6">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I6">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J6">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N6">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O6">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P6">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q6">
-        <v>1.008321610128</v>
+        <v>0.4599000973073332</v>
       </c>
       <c r="R6">
-        <v>9.074894491152</v>
+        <v>4.139100875765999</v>
       </c>
       <c r="S6">
-        <v>0.03180822110402649</v>
+        <v>0.01821185997066443</v>
       </c>
       <c r="T6">
-        <v>0.0329188172779605</v>
+        <v>0.01968798960060101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.495231</v>
       </c>
       <c r="I7">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J7">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N7">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O7">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P7">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q7">
-        <v>1.787952795894</v>
+        <v>0.9497066911649998</v>
       </c>
       <c r="R7">
-        <v>16.091575163046</v>
+        <v>8.547360220484999</v>
       </c>
       <c r="S7">
-        <v>0.05640224040040082</v>
+        <v>0.03760800524715226</v>
       </c>
       <c r="T7">
-        <v>0.05837154614010667</v>
+        <v>0.04065625462736681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.495231</v>
       </c>
       <c r="I8">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J8">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O8">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P8">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q8">
         <v>3.588463568412</v>
@@ -948,10 +948,10 @@
         <v>32.296172115708</v>
       </c>
       <c r="S8">
-        <v>0.1132006310896214</v>
+        <v>0.1421017225270939</v>
       </c>
       <c r="T8">
-        <v>0.1171530743074892</v>
+        <v>0.1536195226543269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>3.495231</v>
       </c>
       <c r="I9">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J9">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N9">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O9">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P9">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q9">
-        <v>0.3691946484269999</v>
+        <v>0.6042019417380001</v>
       </c>
       <c r="R9">
-        <v>3.322751835843</v>
+        <v>5.437817475642</v>
       </c>
       <c r="S9">
-        <v>0.01164650731436628</v>
+        <v>0.02392615531364565</v>
       </c>
       <c r="T9">
-        <v>0.01205314956011553</v>
+        <v>0.02586544689868019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>3.495231</v>
       </c>
       <c r="I10">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J10">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N10">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O10">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P10">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q10">
-        <v>0.7835503998869999</v>
+        <v>1.634361860061</v>
       </c>
       <c r="R10">
-        <v>4.701302399322</v>
+        <v>9.806171160366</v>
       </c>
       <c r="S10">
-        <v>0.02471765368847961</v>
+        <v>0.0647200761884922</v>
       </c>
       <c r="T10">
-        <v>0.0170537866641436</v>
+        <v>0.04664389721868524</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.495231</v>
       </c>
       <c r="I11">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J11">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N11">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O11">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P11">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q11">
-        <v>1.212492138669</v>
+        <v>0.6949816347059999</v>
       </c>
       <c r="R11">
-        <v>10.912429248021</v>
+        <v>6.254834712354</v>
       </c>
       <c r="S11">
-        <v>0.03824892538877712</v>
+        <v>0.02752099485856601</v>
       </c>
       <c r="T11">
-        <v>0.03958440120979016</v>
+        <v>0.02975165971221081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H12">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I12">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J12">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N12">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O12">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P12">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q12">
-        <v>2.088357610097333</v>
+        <v>0.981882638035</v>
       </c>
       <c r="R12">
-        <v>18.795218490876</v>
+        <v>8.836943742315</v>
       </c>
       <c r="S12">
-        <v>0.065878723553113</v>
+        <v>0.03888215987823596</v>
       </c>
       <c r="T12">
-        <v>0.06817890431715086</v>
+        <v>0.04203368357568626</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H13">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I13">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J13">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O13">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P13">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q13">
-        <v>4.19138313878311</v>
+        <v>3.710040276459112</v>
       </c>
       <c r="R13">
-        <v>37.722448249048</v>
+        <v>33.39036248813201</v>
       </c>
       <c r="S13">
-        <v>0.1322201570123817</v>
+        <v>0.1469161115555196</v>
       </c>
       <c r="T13">
-        <v>0.1368366742333438</v>
+        <v>0.158824133346347</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H14">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I14">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J14">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N14">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O14">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P14">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q14">
-        <v>0.4312252848175555</v>
+        <v>0.6246722298353335</v>
       </c>
       <c r="R14">
-        <v>3.881027563357999</v>
+        <v>5.622050068518002</v>
       </c>
       <c r="S14">
-        <v>0.0136033077813163</v>
+        <v>0.02473677053762693</v>
       </c>
       <c r="T14">
-        <v>0.01407827246184238</v>
+        <v>0.02674176508504553</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H15">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I15">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J15">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N15">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O15">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P15">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q15">
-        <v>0.9151994640219998</v>
+        <v>1.689733840552333</v>
       </c>
       <c r="R15">
-        <v>5.491196784131999</v>
+        <v>10.138403043314</v>
       </c>
       <c r="S15">
-        <v>0.0288706168880015</v>
+        <v>0.0669127844764677</v>
       </c>
       <c r="T15">
-        <v>0.01991909699340414</v>
+        <v>0.04822418676774288</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H16">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I16">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J16">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N16">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O16">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P16">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q16">
-        <v>1.416210310914</v>
+        <v>0.7185275277295556</v>
       </c>
       <c r="R16">
-        <v>12.745892798226</v>
+        <v>6.466747749566001</v>
       </c>
       <c r="S16">
-        <v>0.0446753597729956</v>
+        <v>0.02845340280790089</v>
       </c>
       <c r="T16">
-        <v>0.04623521700206693</v>
+        <v>0.03075964231473424</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H17">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I17">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J17">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N17">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O17">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P17">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q17">
-        <v>1.958004259714</v>
+        <v>0.0214264938975</v>
       </c>
       <c r="R17">
-        <v>17.622038337426</v>
+        <v>0.128558963385</v>
       </c>
       <c r="S17">
-        <v>0.0617666345638496</v>
+        <v>0.0008484805913463409</v>
       </c>
       <c r="T17">
-        <v>0.06392324017216226</v>
+        <v>0.0006115017754235129</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H18">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I18">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J18">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O18">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P18">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q18">
-        <v>3.929760880105333</v>
+        <v>0.08095993580466666</v>
       </c>
       <c r="R18">
-        <v>35.367847920948</v>
+        <v>0.4857596148280001</v>
       </c>
       <c r="S18">
-        <v>0.123967097109499</v>
+        <v>0.003205981087504024</v>
       </c>
       <c r="T18">
-        <v>0.128295455595604</v>
+        <v>0.002310557421086223</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H19">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I19">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J19">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N19">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O19">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P19">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q19">
-        <v>0.4043086014036666</v>
+        <v>0.013631502587</v>
       </c>
       <c r="R19">
-        <v>3.638777412633</v>
+        <v>0.08178901552200001</v>
       </c>
       <c r="S19">
-        <v>0.01275420189206795</v>
+        <v>0.0005398020521363248</v>
       </c>
       <c r="T19">
-        <v>0.01319951971655703</v>
+        <v>0.0003890364925552893</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H20">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I20">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J20">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N20">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O20">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P20">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q20">
-        <v>0.858073559997</v>
+        <v>0.0368731154015</v>
       </c>
       <c r="R20">
-        <v>5.148441359982</v>
+        <v>0.147492461606</v>
       </c>
       <c r="S20">
-        <v>0.02706853968590333</v>
+        <v>0.001460160626853514</v>
       </c>
       <c r="T20">
-        <v>0.01867576538336452</v>
+        <v>0.0007015605894670486</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0262855</v>
+      </c>
+      <c r="H21">
+        <v>0.052571</v>
+      </c>
+      <c r="I21">
+        <v>0.006675330195269693</v>
+      </c>
+      <c r="J21">
+        <v>0.004460144442470491</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5965113333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.789534</v>
+      </c>
+      <c r="O21">
+        <v>0.09301499989760488</v>
+      </c>
+      <c r="P21">
+        <v>0.1003304197230327</v>
+      </c>
+      <c r="Q21">
+        <v>0.01567959865233333</v>
+      </c>
+      <c r="R21">
+        <v>0.094077591914</v>
+      </c>
+      <c r="S21">
+        <v>0.0006209058374294893</v>
+      </c>
+      <c r="T21">
+        <v>0.0004474881639384162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.312438</v>
+      </c>
+      <c r="I22">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J22">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.8151449999999999</v>
+      </c>
+      <c r="N22">
+        <v>2.445435</v>
+      </c>
+      <c r="O22">
+        <v>0.1271069095499719</v>
+      </c>
+      <c r="P22">
+        <v>0.1371035811308388</v>
+      </c>
+      <c r="Q22">
+        <v>0.62832409117</v>
+      </c>
+      <c r="R22">
+        <v>5.65491682053</v>
+      </c>
+      <c r="S22">
+        <v>0.02488138278634925</v>
+      </c>
+      <c r="T22">
+        <v>0.02689809862009088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.312438</v>
+      </c>
+      <c r="I23">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J23">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.080022666666667</v>
+      </c>
+      <c r="N23">
+        <v>9.240068000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.4802730342501803</v>
+      </c>
+      <c r="P23">
+        <v>0.5180454245123947</v>
+      </c>
+      <c r="Q23">
+        <v>2.374120485087111</v>
+      </c>
+      <c r="R23">
+        <v>21.367084365784</v>
+      </c>
+      <c r="S23">
+        <v>0.09401422196046783</v>
+      </c>
+      <c r="T23">
+        <v>0.1016343760191319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.312438</v>
+      </c>
+      <c r="I24">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J24">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.5185940000000001</v>
+      </c>
+      <c r="N24">
+        <v>1.555782</v>
+      </c>
+      <c r="O24">
+        <v>0.08086522109705406</v>
+      </c>
+      <c r="P24">
+        <v>0.08722508823947427</v>
+      </c>
+      <c r="Q24">
+        <v>0.3997388240573335</v>
+      </c>
+      <c r="R24">
+        <v>3.597649416516001</v>
+      </c>
+      <c r="S24">
+        <v>0.01582949760435752</v>
+      </c>
+      <c r="T24">
+        <v>0.01711252912768576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.275887</v>
-      </c>
-      <c r="H21">
-        <v>3.827661</v>
-      </c>
-      <c r="I21">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="J21">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.040697</v>
-      </c>
-      <c r="N21">
-        <v>3.122091</v>
-      </c>
-      <c r="O21">
-        <v>0.1566192714045073</v>
-      </c>
-      <c r="P21">
-        <v>0.1620876930121578</v>
-      </c>
-      <c r="Q21">
-        <v>1.327811773239</v>
-      </c>
-      <c r="R21">
-        <v>11.950305959151</v>
-      </c>
-      <c r="S21">
-        <v>0.04188676513870816</v>
-      </c>
-      <c r="T21">
-        <v>0.04334925752234019</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.312438</v>
+      </c>
+      <c r="I25">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J25">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.402793</v>
+      </c>
+      <c r="N25">
+        <v>2.805586</v>
+      </c>
+      <c r="O25">
+        <v>0.2187398352051889</v>
+      </c>
+      <c r="P25">
+        <v>0.1572954863942594</v>
+      </c>
+      <c r="Q25">
+        <v>1.081290613111333</v>
+      </c>
+      <c r="R25">
+        <v>6.487743678668</v>
+      </c>
+      <c r="S25">
+        <v>0.04281867594478435</v>
+      </c>
+      <c r="T25">
+        <v>0.03085951125879293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.312438</v>
+      </c>
+      <c r="I26">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J26">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.5965113333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.789534</v>
+      </c>
+      <c r="O26">
+        <v>0.09301499989760488</v>
+      </c>
+      <c r="P26">
+        <v>0.1003304197230327</v>
+      </c>
+      <c r="Q26">
+        <v>0.4597984915435555</v>
+      </c>
+      <c r="R26">
+        <v>4.138186423892</v>
+      </c>
+      <c r="S26">
+        <v>0.01820783642304405</v>
+      </c>
+      <c r="T26">
+        <v>0.01968363993154825</v>
       </c>
     </row>
   </sheetData>
